--- a/COVID19_impact_on_NZ_Tourism/RawData/expenditure.xlsx
+++ b/COVID19_impact_on_NZ_Tourism/RawData/expenditure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Housni\Desktop\COVID-19 impact on NZ tourism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Housni\Desktop\Data Science Project\Blogpost\COVID19_impact_on_NZ_Tourism\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1A0B21-8D10-4BDC-BE4A-847BE9FED7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0CB28D-EE5F-433C-B1F7-1DF5EEBB5746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="2" r:id="rId1"/>
@@ -32,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>International demand</t>
-  </si>
-  <si>
-    <t>Total demand</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>2010</t>
   </si>
@@ -76,13 +70,22 @@
     <t>2021</t>
   </si>
   <si>
-    <t>Domestic demand</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -926,11 +929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,20 +945,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>14981</v>
@@ -969,7 +974,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>15741</v>
@@ -983,7 +988,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>16313</v>
@@ -997,7 +1002,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>16951</v>
@@ -1011,7 +1016,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>17812</v>
@@ -1025,7 +1030,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>19169</v>
@@ -1039,7 +1044,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>20284</v>
@@ -1053,7 +1058,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>21413</v>
@@ -1067,7 +1072,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>22749</v>
@@ -1081,7 +1086,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>23689</v>
@@ -1095,7 +1100,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>24014</v>
@@ -1109,7 +1114,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>24637</v>
